--- a/extra/performance stats.xlsx
+++ b/extra/performance stats.xlsx
@@ -136,26 +136,9 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-CA"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Service Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -325,11 +308,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101817344"/>
-        <c:axId val="101819904"/>
+        <c:axId val="119385472"/>
+        <c:axId val="106432384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101817344"/>
+        <c:axId val="119385472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -345,7 +328,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of clients</a:t>
+                  <a:t># of clients</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -353,14 +336,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101819904"/>
+        <c:crossAx val="106432384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101819904"/>
+        <c:axId val="106432384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -377,7 +360,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Connection duration (ms)</a:t>
+                  <a:t>average connection duration (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -386,7 +369,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101817344"/>
+        <c:crossAx val="119385472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -399,7 +382,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -407,26 +390,9 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-CA"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Client Count</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -654,11 +620,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101841920"/>
-        <c:axId val="102200448"/>
+        <c:axId val="106462592"/>
+        <c:axId val="106497536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101841920"/>
+        <c:axId val="106462592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +640,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>#</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -687,14 +653,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102200448"/>
+        <c:crossAx val="106497536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102200448"/>
+        <c:axId val="106497536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,7 +686,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101841920"/>
+        <c:crossAx val="106462592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -733,7 +699,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -741,26 +707,9 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-CA"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Service Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1015,11 +964,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75060352"/>
-        <c:axId val="75084544"/>
+        <c:axId val="106511360"/>
+        <c:axId val="106517632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75060352"/>
+        <c:axId val="106511360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,22 +984,29 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of clients</a:t>
+                  <a:t># of clients</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.34670231846019245"/>
+              <c:y val="0.87868037328667248"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75084544"/>
+        <c:crossAx val="106517632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75084544"/>
+        <c:axId val="106517632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1023,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Connection duration (ms)</a:t>
+                  <a:t>average connection duration (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1076,7 +1032,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75060352"/>
+        <c:crossAx val="106511360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,7 +1045,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1097,26 +1053,9 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-CA"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Client Count</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1371,11 +1310,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75079040"/>
-        <c:axId val="75081216"/>
+        <c:axId val="106642048"/>
+        <c:axId val="106648320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75079040"/>
+        <c:axId val="106642048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1330,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>#</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -1404,14 +1343,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75081216"/>
+        <c:crossAx val="106648320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75081216"/>
+        <c:axId val="106648320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1376,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75079040"/>
+        <c:crossAx val="106642048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1450,7 +1389,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1869,7 +1808,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
